--- a/data/trans_orig/P34D1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D1-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{408340CC-EE65-4EEB-ADA0-661A8988BC0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05637A8E-5B4D-40A9-B86B-E10252CF5590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{AD0BA4C2-400D-4F87-ABE7-AE14F93221E5}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B6B027BE-3F8E-4EE0-AA81-87B97313A437}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="652">
   <si>
     <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2015 (Tasa respuesta: 9,54%)</t>
   </si>
@@ -75,1957 +75,1924 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>22,17%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>58,81%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>72,89%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>46,29%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>42,5%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>86,62%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>48,2%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>38,43%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>49,82%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>41,11%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>16,82%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>36,45%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>28,12%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>38,6%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>43,1%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
     <t>21,8%</t>
   </si>
   <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>72,24%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>44,16%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
   </si>
   <si>
     <t>11,78%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>34,62%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>31,23%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>54,63%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
   </si>
   <si>
     <t>11,31%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>38,99%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>45,39%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>42,52%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,57%</t>
-  </si>
-  <si>
-    <t>28,39%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>15,85%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
     <t>11,62%</t>
   </si>
   <si>
-    <t>17,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>43,85%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>44,76%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>37,02%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>62,98%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>41,72%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>44,13%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
   </si>
   <si>
     <t>11,19%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>30,42%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
   </si>
 </sst>
 </file>
@@ -2437,7 +2404,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B109B15C-E03A-4A78-9768-7646F9F2D9A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5F1115-9878-46D7-BE8B-C72BF67A83E3}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3501,10 +3468,10 @@
         <v>132</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>23</v>
+        <v>133</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M22" s="7">
         <v>41</v>
@@ -3513,13 +3480,13 @@
         <v>43276</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3534,13 +3501,13 @@
         <v>12295</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H23" s="7">
         <v>5</v>
@@ -3549,13 +3516,13 @@
         <v>5237</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M23" s="7">
         <v>15</v>
@@ -3564,13 +3531,13 @@
         <v>17531</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3585,13 +3552,13 @@
         <v>27777</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>19</v>
@@ -3600,13 +3567,13 @@
         <v>18938</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -3615,13 +3582,13 @@
         <v>46715</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3636,13 +3603,13 @@
         <v>24697</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -3651,13 +3618,13 @@
         <v>6928</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M25" s="7">
         <v>29</v>
@@ -3666,13 +3633,13 @@
         <v>31625</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3687,13 +3654,13 @@
         <v>31923</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -3702,13 +3669,13 @@
         <v>3614</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -3717,13 +3684,13 @@
         <v>35537</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>42</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3779,7 +3746,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5">
         <v>7</v>
@@ -3791,13 +3758,13 @@
         <v>2159</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -3806,13 +3773,13 @@
         <v>1902</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -3821,13 +3788,13 @@
         <v>4061</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,13 +3809,13 @@
         <v>9524</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -3857,13 +3824,13 @@
         <v>1064</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M29" s="7">
         <v>10</v>
@@ -3872,13 +3839,13 @@
         <v>10588</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3893,13 +3860,13 @@
         <v>29957</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H30" s="7">
         <v>5</v>
@@ -3908,13 +3875,13 @@
         <v>5470</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M30" s="7">
         <v>34</v>
@@ -3923,13 +3890,13 @@
         <v>35427</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3944,13 +3911,13 @@
         <v>11038</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -3959,13 +3926,13 @@
         <v>4150</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -3974,13 +3941,13 @@
         <v>15188</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3995,13 +3962,13 @@
         <v>19682</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -4010,13 +3977,13 @@
         <v>8327</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -4025,13 +3992,13 @@
         <v>28009</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4046,13 +4013,13 @@
         <v>14149</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4061,13 +4028,13 @@
         <v>6665</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -4076,13 +4043,13 @@
         <v>20814</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4064,13 @@
         <v>14255</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4112,13 +4079,13 @@
         <v>3691</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -4127,13 +4094,13 @@
         <v>17947</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4189,7 +4156,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -4201,13 +4168,13 @@
         <v>12181</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4216,13 +4183,13 @@
         <v>1562</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -4231,13 +4198,13 @@
         <v>13743</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4252,13 +4219,13 @@
         <v>3071</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -4267,13 +4234,13 @@
         <v>5046</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>8</v>
@@ -4282,13 +4249,13 @@
         <v>8117</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4270,13 @@
         <v>26863</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -4318,13 +4285,13 @@
         <v>7021</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>141</v>
+        <v>256</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M38" s="7">
         <v>33</v>
@@ -4333,13 +4300,13 @@
         <v>33884</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4321,13 @@
         <v>16483</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H39" s="7">
         <v>7</v>
@@ -4369,13 +4336,13 @@
         <v>6901</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M39" s="7">
         <v>23</v>
@@ -4384,13 +4351,13 @@
         <v>23384</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>265</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4405,13 +4372,13 @@
         <v>34782</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
@@ -4420,13 +4387,13 @@
         <v>25423</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M40" s="7">
         <v>59</v>
@@ -4435,13 +4402,13 @@
         <v>60205</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,13 +4423,13 @@
         <v>38633</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="H41" s="7">
         <v>17</v>
@@ -4471,13 +4438,13 @@
         <v>17623</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="M41" s="7">
         <v>55</v>
@@ -4486,13 +4453,13 @@
         <v>56255</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,13 +4474,13 @@
         <v>15218</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="H42" s="7">
         <v>11</v>
@@ -4522,13 +4489,13 @@
         <v>12246</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M42" s="7">
         <v>25</v>
@@ -4537,13 +4504,13 @@
         <v>27465</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,13 +4578,13 @@
         <v>31041</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -4626,13 +4593,13 @@
         <v>7243</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="M44" s="7">
         <v>36</v>
@@ -4641,13 +4608,13 @@
         <v>38284</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>67</v>
+        <v>304</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,13 +4629,13 @@
         <v>24755</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="H45" s="7">
         <v>8</v>
@@ -4677,13 +4644,13 @@
         <v>7884</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M45" s="7">
         <v>31</v>
@@ -4692,13 +4659,13 @@
         <v>32640</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>110</v>
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4713,13 +4680,13 @@
         <v>108771</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>309</v>
+        <v>147</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H46" s="7">
         <v>23</v>
@@ -4728,13 +4695,13 @@
         <v>23144</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>312</v>
+        <v>138</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="M46" s="7">
         <v>126</v>
@@ -4743,13 +4710,13 @@
         <v>131915</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4764,13 +4731,13 @@
         <v>49758</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H47" s="7">
         <v>16</v>
@@ -4779,13 +4746,13 @@
         <v>16288</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>320</v>
+        <v>223</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M47" s="7">
         <v>62</v>
@@ -4794,10 +4761,10 @@
         <v>66046</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>324</v>
+        <v>168</v>
       </c>
       <c r="Q47" s="7" t="s">
         <v>325</v>
@@ -4872,7 +4839,7 @@
         <v>336</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>266</v>
+        <v>337</v>
       </c>
       <c r="H49" s="7">
         <v>37</v>
@@ -4881,10 +4848,10 @@
         <v>36798</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>338</v>
+        <v>166</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>339</v>
@@ -4923,7 +4890,7 @@
         <v>344</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>345</v>
+        <v>200</v>
       </c>
       <c r="H50" s="7">
         <v>18</v>
@@ -4932,13 +4899,13 @@
         <v>20433</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>347</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M50" s="7">
         <v>84</v>
@@ -4947,13 +4914,13 @@
         <v>95117</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5009,7 +4976,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -5030,7 +4997,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6D103BB-D106-4CF8-9962-1BD5A14DDE04}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DCCCD1-D9A6-40E7-91DC-EE0C43E4C6AC}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5047,7 +5014,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5154,13 +5121,13 @@
         <v>874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5175,7 +5142,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5184,13 +5151,13 @@
         <v>874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5172,13 @@
         <v>1400</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5226,7 +5193,7 @@
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5235,13 +5202,13 @@
         <v>1400</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5223,13 @@
         <v>3589</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5271,13 +5238,13 @@
         <v>1115</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -5286,13 +5253,13 @@
         <v>4704</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,13 +5274,13 @@
         <v>3328</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>369</v>
+        <v>87</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>370</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5328,7 +5295,7 @@
         <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5337,13 +5304,13 @@
         <v>3328</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5358,13 +5325,13 @@
         <v>7964</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5373,13 +5340,13 @@
         <v>1162</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5388,13 +5355,13 @@
         <v>9126</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,7 +5382,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>383</v>
+        <v>117</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5424,13 +5391,13 @@
         <v>1503</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>367</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -5439,13 +5406,13 @@
         <v>1503</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5460,13 +5427,13 @@
         <v>835</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5481,7 +5448,7 @@
         <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5490,13 +5457,13 @@
         <v>835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>392</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5564,13 +5531,13 @@
         <v>3162</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>393</v>
+        <v>229</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5579,13 +5546,13 @@
         <v>3593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>396</v>
+        <v>34</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5594,13 +5561,13 @@
         <v>6754</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>399</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5615,13 +5582,13 @@
         <v>6055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>401</v>
+        <v>322</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>402</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5630,13 +5597,13 @@
         <v>596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5645,13 +5612,13 @@
         <v>6652</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5666,13 +5633,13 @@
         <v>30413</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
         <v>8</v>
@@ -5681,13 +5648,13 @@
         <v>5414</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>412</v>
+        <v>320</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>413</v>
+        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -5696,13 +5663,13 @@
         <v>35827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>414</v>
+        <v>402</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5717,13 +5684,13 @@
         <v>13918</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>418</v>
+        <v>406</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -5732,13 +5699,13 @@
         <v>2659</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>420</v>
+        <v>232</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>421</v>
+        <v>408</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -5747,13 +5714,13 @@
         <v>16577</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>422</v>
+        <v>410</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>424</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5768,13 +5735,13 @@
         <v>31507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>361</v>
+        <v>413</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -5783,13 +5750,13 @@
         <v>11134</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>428</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -5798,13 +5765,13 @@
         <v>42641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>430</v>
+        <v>418</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>432</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5786,13 @@
         <v>16298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>434</v>
+        <v>422</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>30</v>
+        <v>423</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5834,13 +5801,13 @@
         <v>7050</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -5849,13 +5816,13 @@
         <v>23348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>440</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5837,13 @@
         <v>4910</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>441</v>
+        <v>114</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>443</v>
+        <v>430</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -5885,13 +5852,13 @@
         <v>2499</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>444</v>
+        <v>431</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -5900,13 +5867,13 @@
         <v>7410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>196</v>
+        <v>433</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>446</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>447</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +5941,13 @@
         <v>6122</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>450</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5989,13 +5956,13 @@
         <v>2821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>288</v>
+        <v>223</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -6004,13 +5971,13 @@
         <v>8943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +5992,13 @@
         <v>8901</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>299</v>
+        <v>441</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>442</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -6040,13 +6007,13 @@
         <v>671</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>122</v>
+        <v>444</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -6055,13 +6022,13 @@
         <v>9571</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>157</v>
+        <v>448</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6043,13 @@
         <v>58077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>460</v>
+        <v>449</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>462</v>
+        <v>451</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6091,13 +6058,13 @@
         <v>25681</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>463</v>
+        <v>452</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>464</v>
+        <v>453</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>465</v>
+        <v>454</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -6106,13 +6073,13 @@
         <v>83758</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>466</v>
+        <v>455</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>129</v>
+        <v>456</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6127,13 +6094,13 @@
         <v>24200</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>468</v>
+        <v>259</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>469</v>
+        <v>458</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>470</v>
+        <v>459</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -6142,13 +6109,13 @@
         <v>8730</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>471</v>
+        <v>460</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>472</v>
+        <v>461</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>473</v>
+        <v>462</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -6157,13 +6124,13 @@
         <v>32930</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>474</v>
+        <v>463</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>475</v>
+        <v>226</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>476</v>
+        <v>464</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6178,13 +6145,13 @@
         <v>66046</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>477</v>
+        <v>465</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>478</v>
+        <v>281</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>479</v>
+        <v>466</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -6193,13 +6160,13 @@
         <v>22497</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>480</v>
+        <v>467</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -6208,13 +6175,13 @@
         <v>88543</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>483</v>
+        <v>470</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>484</v>
+        <v>471</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>485</v>
+        <v>472</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6229,13 +6196,13 @@
         <v>31539</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>486</v>
+        <v>473</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>260</v>
+        <v>425</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -6244,13 +6211,13 @@
         <v>12331</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -6259,13 +6226,13 @@
         <v>43871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>491</v>
+        <v>248</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6280,13 +6247,13 @@
         <v>20435</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6295,13 +6262,13 @@
         <v>6886</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>305</v>
+        <v>483</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>59</v>
+        <v>484</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>497</v>
+        <v>156</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -6310,13 +6277,13 @@
         <v>27321</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>498</v>
+        <v>486</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6372,7 +6339,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B28" s="5">
         <v>7</v>
@@ -6384,13 +6351,13 @@
         <v>3396</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>500</v>
+        <v>488</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>501</v>
+        <v>489</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6399,13 +6366,13 @@
         <v>1124</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>502</v>
+        <v>490</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6414,13 +6381,13 @@
         <v>4520</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>506</v>
+        <v>320</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6435,13 +6402,13 @@
         <v>4689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>507</v>
+        <v>494</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>508</v>
+        <v>495</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>509</v>
+        <v>496</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6450,13 +6417,13 @@
         <v>320</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>510</v>
+        <v>497</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>244</v>
+        <v>490</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -6465,13 +6432,13 @@
         <v>5010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>27</v>
+        <v>498</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>511</v>
+        <v>499</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>512</v>
+        <v>500</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6486,13 +6453,13 @@
         <v>22987</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>514</v>
+        <v>208</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>515</v>
+        <v>502</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -6501,13 +6468,13 @@
         <v>11783</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>516</v>
+        <v>503</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>517</v>
+        <v>504</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>518</v>
+        <v>505</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -6516,13 +6483,13 @@
         <v>34770</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>519</v>
+        <v>506</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>521</v>
+        <v>508</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,13 +6504,13 @@
         <v>13275</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>522</v>
+        <v>509</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>523</v>
+        <v>510</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>524</v>
+        <v>511</v>
       </c>
       <c r="H31" s="7">
         <v>7</v>
@@ -6552,13 +6519,13 @@
         <v>9356</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>525</v>
+        <v>512</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>526</v>
+        <v>513</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>527</v>
+        <v>514</v>
       </c>
       <c r="M31" s="7">
         <v>19</v>
@@ -6567,13 +6534,13 @@
         <v>22631</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>489</v>
+        <v>516</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>529</v>
+        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6588,13 +6555,13 @@
         <v>24037</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>530</v>
+        <v>518</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -6603,13 +6570,13 @@
         <v>10010</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>533</v>
+        <v>521</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>534</v>
+        <v>522</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>535</v>
+        <v>523</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -6618,13 +6585,13 @@
         <v>34048</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>536</v>
+        <v>524</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>537</v>
+        <v>525</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>538</v>
+        <v>526</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6639,13 +6606,13 @@
         <v>25126</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>539</v>
+        <v>527</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>540</v>
+        <v>504</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>541</v>
+        <v>528</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -6654,13 +6621,13 @@
         <v>11452</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>542</v>
+        <v>529</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>544</v>
+        <v>531</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -6669,13 +6636,13 @@
         <v>36578</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>545</v>
+        <v>532</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6690,13 +6657,13 @@
         <v>18779</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>548</v>
+        <v>535</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>549</v>
+        <v>85</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -6705,13 +6672,13 @@
         <v>3763</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>551</v>
+        <v>304</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>552</v>
+        <v>452</v>
       </c>
       <c r="M34" s="7">
         <v>15</v>
@@ -6720,13 +6687,13 @@
         <v>22542</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>553</v>
+        <v>538</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>554</v>
+        <v>539</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>555</v>
+        <v>540</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,7 +6749,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -6794,13 +6761,13 @@
         <v>9540</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>556</v>
+        <v>541</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>557</v>
+        <v>542</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -6809,13 +6776,13 @@
         <v>3337</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>558</v>
+        <v>543</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>559</v>
+        <v>544</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>560</v>
+        <v>545</v>
       </c>
       <c r="M36" s="7">
         <v>14</v>
@@ -6824,13 +6791,13 @@
         <v>12876</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>441</v>
+        <v>114</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>561</v>
+        <v>546</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>420</v>
+        <v>547</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,13 +6812,13 @@
         <v>14912</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -6860,13 +6827,13 @@
         <v>10087</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>61</v>
+        <v>551</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>565</v>
+        <v>552</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>566</v>
+        <v>553</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -6875,13 +6842,13 @@
         <v>24999</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6896,13 +6863,13 @@
         <v>32165</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>572</v>
+        <v>559</v>
       </c>
       <c r="H38" s="7">
         <v>23</v>
@@ -6911,13 +6878,13 @@
         <v>16186</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>573</v>
+        <v>560</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>104</v>
+        <v>561</v>
       </c>
       <c r="M38" s="7">
         <v>51</v>
@@ -6926,13 +6893,13 @@
         <v>48350</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6947,13 +6914,13 @@
         <v>29871</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>578</v>
+        <v>478</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="H39" s="7">
         <v>7</v>
@@ -6962,13 +6929,13 @@
         <v>15352</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>580</v>
+        <v>567</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>581</v>
+        <v>568</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>582</v>
+        <v>569</v>
       </c>
       <c r="M39" s="7">
         <v>32</v>
@@ -6977,13 +6944,13 @@
         <v>45223</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>583</v>
+        <v>570</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>584</v>
+        <v>571</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6998,13 +6965,13 @@
         <v>61392</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>586</v>
+        <v>573</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>587</v>
+        <v>574</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>588</v>
+        <v>575</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -7013,13 +6980,13 @@
         <v>20702</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>589</v>
+        <v>576</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>590</v>
+        <v>577</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>591</v>
+        <v>578</v>
       </c>
       <c r="M40" s="7">
         <v>72</v>
@@ -7028,13 +6995,13 @@
         <v>82094</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>592</v>
+        <v>579</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>593</v>
+        <v>580</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>594</v>
+        <v>581</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7049,13 +7016,13 @@
         <v>29413</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>595</v>
+        <v>582</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>596</v>
+        <v>425</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>597</v>
+        <v>111</v>
       </c>
       <c r="H41" s="7">
         <v>21</v>
@@ -7064,13 +7031,13 @@
         <v>16954</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="M41" s="7">
         <v>50</v>
@@ -7079,13 +7046,13 @@
         <v>46367</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>601</v>
+        <v>586</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>602</v>
+        <v>587</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>603</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7100,13 +7067,13 @@
         <v>15875</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>604</v>
+        <v>589</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>605</v>
+        <v>590</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>606</v>
+        <v>591</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -7115,13 +7082,13 @@
         <v>2984</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>199</v>
+        <v>592</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>396</v>
+        <v>594</v>
       </c>
       <c r="M42" s="7">
         <v>16</v>
@@ -7130,13 +7097,13 @@
         <v>18859</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>367</v>
+        <v>595</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>141</v>
+        <v>596</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>608</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7204,13 +7171,13 @@
         <v>23093</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>609</v>
+        <v>598</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>610</v>
+        <v>599</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>611</v>
+        <v>288</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -7219,13 +7186,13 @@
         <v>10875</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>612</v>
+        <v>600</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>613</v>
+        <v>308</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="M44" s="7">
         <v>35</v>
@@ -7234,13 +7201,13 @@
         <v>33968</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7255,13 +7222,13 @@
         <v>35957</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -7270,13 +7237,13 @@
         <v>11675</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="M45" s="7">
         <v>42</v>
@@ -7285,13 +7252,13 @@
         <v>47632</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>196</v>
+        <v>433</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7306,13 +7273,13 @@
         <v>147230</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>626</v>
+        <v>107</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>627</v>
+        <v>612</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>628</v>
+        <v>613</v>
       </c>
       <c r="H46" s="7">
         <v>72</v>
@@ -7321,13 +7288,13 @@
         <v>60179</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>629</v>
+        <v>614</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>630</v>
+        <v>615</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="M46" s="7">
         <v>188</v>
@@ -7336,13 +7303,13 @@
         <v>207409</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>632</v>
+        <v>617</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>633</v>
+        <v>618</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>634</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7360,10 +7327,10 @@
         <v>105</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>635</v>
+        <v>620</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>636</v>
+        <v>621</v>
       </c>
       <c r="H47" s="7">
         <v>28</v>
@@ -7372,13 +7339,13 @@
         <v>36098</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>637</v>
+        <v>622</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>638</v>
+        <v>422</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>639</v>
+        <v>623</v>
       </c>
       <c r="M47" s="7">
         <v>91</v>
@@ -7387,13 +7354,13 @@
         <v>120689</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>640</v>
+        <v>624</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>641</v>
+        <v>625</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>642</v>
+        <v>626</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7408,13 +7375,13 @@
         <v>190946</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>643</v>
+        <v>627</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>644</v>
+        <v>628</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="H48" s="7">
         <v>75</v>
@@ -7423,13 +7390,13 @@
         <v>65504</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>646</v>
+        <v>630</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>647</v>
+        <v>631</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>648</v>
+        <v>632</v>
       </c>
       <c r="M48" s="7">
         <v>221</v>
@@ -7438,13 +7405,13 @@
         <v>256450</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>649</v>
+        <v>633</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>650</v>
+        <v>634</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>651</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7459,13 +7426,13 @@
         <v>102376</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>652</v>
+        <v>636</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>575</v>
+        <v>637</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>357</v>
+        <v>638</v>
       </c>
       <c r="H49" s="7">
         <v>55</v>
@@ -7474,13 +7441,13 @@
         <v>49290</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>211</v>
+        <v>640</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="M49" s="7">
         <v>141</v>
@@ -7489,13 +7456,13 @@
         <v>151666</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>234</v>
+        <v>643</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7507,16 +7474,16 @@
         <v>46</v>
       </c>
       <c r="D50" s="7">
-        <v>60834</v>
+        <v>60835</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>658</v>
+        <v>500</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>659</v>
+        <v>646</v>
       </c>
       <c r="H50" s="7">
         <v>18</v>
@@ -7525,13 +7492,13 @@
         <v>16132</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>202</v>
+        <v>647</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>660</v>
+        <v>265</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>474</v>
+        <v>648</v>
       </c>
       <c r="M50" s="7">
         <v>64</v>
@@ -7540,13 +7507,13 @@
         <v>76967</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>661</v>
+        <v>649</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>581</v>
+        <v>650</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,7 +7525,7 @@
         <v>510</v>
       </c>
       <c r="D51" s="7">
-        <v>645028</v>
+        <v>645029</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>57</v>
@@ -7602,7 +7569,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34D1-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D1-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05637A8E-5B4D-40A9-B86B-E10252CF5590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5401CB9F-7F7A-45C2-A431-9DB28488CD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B6B027BE-3F8E-4EE0-AA81-87B97313A437}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{77FB7021-F26D-4308-9FE0-EBA829B0DD39}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -37,9 +37,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="652">
-  <si>
-    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2015 (Tasa respuesta: 9,54%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="650">
+  <si>
+    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2016 (Tasa respuesta: 9,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -66,7 +66,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>4,42%</t>
@@ -75,25 +75,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>22,17%</t>
+    <t>21,99%</t>
   </si>
   <si>
     <t>14,16%</t>
   </si>
   <si>
-    <t>58,81%</t>
+    <t>60,7%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>20,07%</t>
+    <t>21,77%</t>
   </si>
   <si>
     <t>7,94%</t>
   </si>
   <si>
-    <t>23,67%</t>
+    <t>23,95%</t>
   </si>
   <si>
     <t>0%</t>
@@ -105,1882 +105,1876 @@
     <t>6,1%</t>
   </si>
   <si>
-    <t>18,42%</t>
+    <t>20,93%</t>
   </si>
   <si>
     <t>12,48%</t>
   </si>
   <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>44,36%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>46,98%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>31,44%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>50,47%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>55,43%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>23,83%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
     <t>4,01%</t>
   </si>
   <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>45,56%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>72,89%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>46,29%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>8,56%</t>
-  </si>
-  <si>
-    <t>42,5%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>48,2%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>49,82%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>32,45%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>46,84%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
   </si>
   <si>
     <t>30,1%</t>
   </si>
   <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>40,97%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>20,06%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
   </si>
   <si>
     <t>10,99%</t>
   </si>
   <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
+    <t>27,86%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
   </si>
   <si>
     <t>22,83%</t>
   </si>
   <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>24,09%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>16,82%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>22,62%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>26,68%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>16,91%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>3,74%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>43,78%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>12,31%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>21,02%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>43,1%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días en los que realizó actividades físicas intensas durante los últimos 7 días en 2023 (Tasa respuesta: 8,94%)</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>44,36%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>63,8%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>40,81%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>40,97%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>40,19%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>20,06%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>31,5%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>29,84%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>41,82%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>31,3%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>19,08%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>19,94%</t>
-  </si>
-  <si>
-    <t>26,68%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>32,14%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
   </si>
   <si>
     <t>11,62%</t>
@@ -2404,7 +2398,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5F1115-9878-46D7-BE8B-C72BF67A83E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF7C957-9950-4026-BFA5-6EEF357A2882}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3878,10 +3872,10 @@
         <v>193</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>160</v>
+        <v>194</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M30" s="7">
         <v>34</v>
@@ -3890,13 +3884,13 @@
         <v>35427</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3911,13 +3905,13 @@
         <v>11038</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -3926,13 +3920,13 @@
         <v>4150</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="M31" s="7">
         <v>14</v>
@@ -3941,13 +3935,13 @@
         <v>15188</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +3956,13 @@
         <v>19682</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="H32" s="7">
         <v>8</v>
@@ -3977,13 +3971,13 @@
         <v>8327</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M32" s="7">
         <v>26</v>
@@ -3992,13 +3986,13 @@
         <v>28009</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4013,13 +4007,13 @@
         <v>14149</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
@@ -4028,13 +4022,13 @@
         <v>6665</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M33" s="7">
         <v>19</v>
@@ -4043,13 +4037,13 @@
         <v>20814</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4064,13 +4058,13 @@
         <v>14255</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -4079,13 +4073,13 @@
         <v>3691</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -4094,13 +4088,13 @@
         <v>17947</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4156,7 +4150,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -4168,13 +4162,13 @@
         <v>12181</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
       <c r="F36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="H36" s="7">
         <v>1</v>
@@ -4183,13 +4177,13 @@
         <v>1562</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="M36" s="7">
         <v>13</v>
@@ -4198,13 +4192,13 @@
         <v>13743</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="P36" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="P36" s="7" t="s">
+      <c r="Q36" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4213,13 @@
         <v>3071</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -4234,13 +4228,13 @@
         <v>5046</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M37" s="7">
         <v>8</v>
@@ -4249,13 +4243,13 @@
         <v>8117</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>250</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>251</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4264,13 @@
         <v>26863</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -4285,13 +4279,13 @@
         <v>7021</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M38" s="7">
         <v>33</v>
@@ -4300,13 +4294,13 @@
         <v>33884</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4315,13 @@
         <v>16483</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H39" s="7">
         <v>7</v>
@@ -4336,13 +4330,13 @@
         <v>6901</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M39" s="7">
         <v>23</v>
@@ -4351,13 +4345,13 @@
         <v>23384</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4366,13 @@
         <v>34782</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="H40" s="7">
         <v>25</v>
@@ -4387,13 +4381,13 @@
         <v>25423</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="M40" s="7">
         <v>59</v>
@@ -4402,13 +4396,13 @@
         <v>60205</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4423,13 +4417,13 @@
         <v>38633</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="H41" s="7">
         <v>17</v>
@@ -4438,13 +4432,13 @@
         <v>17623</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="M41" s="7">
         <v>55</v>
@@ -4453,13 +4447,13 @@
         <v>56255</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4474,13 +4468,13 @@
         <v>15218</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="H42" s="7">
         <v>11</v>
@@ -4489,13 +4483,13 @@
         <v>12246</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="M42" s="7">
         <v>25</v>
@@ -4504,13 +4498,13 @@
         <v>27465</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>293</v>
+        <v>89</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4578,13 +4572,13 @@
         <v>31041</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="H44" s="7">
         <v>7</v>
@@ -4593,13 +4587,13 @@
         <v>7243</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M44" s="7">
         <v>36</v>
@@ -4608,13 +4602,13 @@
         <v>38284</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>304</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4629,13 +4623,13 @@
         <v>24755</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>185</v>
+        <v>299</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="H45" s="7">
         <v>8</v>
@@ -4644,13 +4638,13 @@
         <v>7884</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="M45" s="7">
         <v>31</v>
@@ -4659,13 +4653,13 @@
         <v>32640</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>311</v>
+        <v>185</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -4680,13 +4674,13 @@
         <v>108771</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>147</v>
+        <v>307</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="H46" s="7">
         <v>23</v>
@@ -4695,13 +4689,13 @@
         <v>23144</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>138</v>
+        <v>287</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="M46" s="7">
         <v>126</v>
@@ -4710,13 +4704,13 @@
         <v>131915</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,13 +4725,13 @@
         <v>49758</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="H47" s="7">
         <v>16</v>
@@ -4746,13 +4740,13 @@
         <v>16288</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M47" s="7">
         <v>62</v>
@@ -4761,13 +4755,13 @@
         <v>66046</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>168</v>
+        <v>321</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4782,13 +4776,13 @@
         <v>102595</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="H48" s="7">
         <v>61</v>
@@ -4797,13 +4791,13 @@
         <v>60748</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="M48" s="7">
         <v>160</v>
@@ -4812,13 +4806,13 @@
         <v>163343</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -4833,13 +4827,13 @@
         <v>96401</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H49" s="7">
         <v>37</v>
@@ -4848,13 +4842,13 @@
         <v>36798</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>166</v>
+        <v>336</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="M49" s="7">
         <v>128</v>
@@ -4863,13 +4857,13 @@
         <v>133199</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P49" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P49" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -4884,13 +4878,13 @@
         <v>74685</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="H50" s="7">
         <v>18</v>
@@ -4899,13 +4893,13 @@
         <v>20433</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K50" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L50" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M50" s="7">
         <v>84</v>
@@ -4914,13 +4908,13 @@
         <v>95117</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -4976,7 +4970,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -4997,7 +4991,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DCCCD1-D9A6-40E7-91DC-EE0C43E4C6AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12493E4B-D2AC-4FB1-B6E3-32FCF9D1D07D}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5014,7 +5008,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5121,13 +5115,13 @@
         <v>874</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5142,7 +5136,7 @@
         <v>19</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5151,13 +5145,13 @@
         <v>874</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>24</v>
+        <v>354</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5172,13 +5166,13 @@
         <v>1400</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>357</v>
+        <v>218</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5193,7 +5187,7 @@
         <v>19</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -5202,13 +5196,13 @@
         <v>1400</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5223,13 +5217,13 @@
         <v>3589</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -5238,13 +5232,13 @@
         <v>1115</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M6" s="7">
         <v>5</v>
@@ -5253,13 +5247,13 @@
         <v>4704</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="Q6" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5274,13 +5268,13 @@
         <v>3328</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>87</v>
+        <v>367</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>368</v>
+        <v>44</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5295,7 +5289,7 @@
         <v>19</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -5304,13 +5298,13 @@
         <v>3328</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5325,13 +5319,13 @@
         <v>7964</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -5340,13 +5334,13 @@
         <v>1162</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -5355,13 +5349,13 @@
         <v>9126</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5382,7 +5376,7 @@
         <v>19</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>117</v>
+        <v>378</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -5391,13 +5385,13 @@
         <v>1503</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -5406,13 +5400,13 @@
         <v>1503</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>383</v>
-      </c>
       <c r="Q9" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5427,13 +5421,13 @@
         <v>835</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>384</v>
+        <v>114</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5448,7 +5442,7 @@
         <v>19</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -5457,13 +5451,13 @@
         <v>835</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5531,13 +5525,13 @@
         <v>3162</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>229</v>
+        <v>384</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5546,13 +5540,13 @@
         <v>3593</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>34</v>
+        <v>241</v>
       </c>
       <c r="K12" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>389</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5561,13 +5555,13 @@
         <v>6754</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>86</v>
+        <v>389</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>390</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>242</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5582,13 +5576,13 @@
         <v>6055</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -5597,13 +5591,13 @@
         <v>596</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -5651,10 +5645,10 @@
         <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>320</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
         <v>31</v>
@@ -5663,13 +5657,13 @@
         <v>35827</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>402</v>
+        <v>28</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5684,13 +5678,13 @@
         <v>13918</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -5699,13 +5693,13 @@
         <v>2659</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>232</v>
+        <v>409</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M15" s="7">
         <v>10</v>
@@ -5714,13 +5708,13 @@
         <v>16577</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5735,13 +5729,13 @@
         <v>31507</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -5750,13 +5744,13 @@
         <v>11134</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>178</v>
+        <v>419</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="M16" s="7">
         <v>41</v>
@@ -5765,13 +5759,13 @@
         <v>42641</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5786,13 +5780,13 @@
         <v>16298</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5801,13 +5795,13 @@
         <v>7050</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="M17" s="7">
         <v>26</v>
@@ -5816,10 +5810,10 @@
         <v>23348</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>42</v>
@@ -5837,13 +5831,13 @@
         <v>4910</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>432</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>429</v>
+        <v>294</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>430</v>
+        <v>37</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -5852,13 +5846,13 @@
         <v>2499</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M18" s="7">
         <v>7</v>
@@ -5867,13 +5861,13 @@
         <v>7410</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>349</v>
+        <v>436</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5941,13 +5935,13 @@
         <v>6122</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>128</v>
+        <v>439</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5956,13 +5950,13 @@
         <v>2821</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -5971,13 +5965,13 @@
         <v>8943</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5992,13 +5986,13 @@
         <v>8901</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H21" s="7">
         <v>1</v>
@@ -6007,13 +6001,13 @@
         <v>671</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>444</v>
+        <v>122</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="M21" s="7">
         <v>10</v>
@@ -6022,13 +6016,13 @@
         <v>9571</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6043,13 +6037,13 @@
         <v>58077</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6058,13 +6052,13 @@
         <v>25681</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="M22" s="7">
         <v>65</v>
@@ -6073,13 +6067,13 @@
         <v>83758</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6094,13 +6088,13 @@
         <v>24200</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>461</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="H23" s="7">
         <v>11</v>
@@ -6109,13 +6103,13 @@
         <v>8730</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -6124,13 +6118,13 @@
         <v>32930</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>226</v>
+        <v>468</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6145,13 +6139,13 @@
         <v>66046</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -6160,13 +6154,13 @@
         <v>22497</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="M24" s="7">
         <v>72</v>
@@ -6175,13 +6169,13 @@
         <v>88543</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6196,13 +6190,13 @@
         <v>31539</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="H25" s="7">
         <v>13</v>
@@ -6211,13 +6205,13 @@
         <v>12331</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>475</v>
+        <v>336</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>477</v>
+        <v>308</v>
       </c>
       <c r="M25" s="7">
         <v>36</v>
@@ -6226,13 +6220,13 @@
         <v>43871</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>248</v>
+        <v>481</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6247,13 +6241,13 @@
         <v>20435</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="H26" s="7">
         <v>10</v>
@@ -6262,10 +6256,10 @@
         <v>6886</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>156</v>
@@ -6277,13 +6271,13 @@
         <v>27321</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>486</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6351,13 +6345,13 @@
         <v>3396</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="H28" s="7">
         <v>1</v>
@@ -6366,13 +6360,13 @@
         <v>1124</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="K28" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6381,13 +6375,13 @@
         <v>4520</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>320</v>
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6402,13 +6396,13 @@
         <v>4689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="H29" s="7">
         <v>2</v>
@@ -6417,13 +6411,13 @@
         <v>320</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="M29" s="7">
         <v>7</v>
@@ -6432,13 +6426,13 @@
         <v>5010</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>498</v>
+        <v>299</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6453,13 +6447,13 @@
         <v>22987</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="H30" s="7">
         <v>14</v>
@@ -6468,13 +6462,13 @@
         <v>11783</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>504</v>
+        <v>148</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M30" s="7">
         <v>36</v>
@@ -6483,13 +6477,13 @@
         <v>34770</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6504,7 +6498,7 @@
         <v>13275</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>509</v>
+        <v>43</v>
       </c>
       <c r="F31" s="7" t="s">
         <v>510</v>
@@ -6537,10 +6531,10 @@
         <v>515</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>516</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6555,13 +6549,13 @@
         <v>24037</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>520</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -6570,13 +6564,13 @@
         <v>10010</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>521</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>522</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>523</v>
       </c>
       <c r="M32" s="7">
         <v>27</v>
@@ -6585,13 +6579,13 @@
         <v>34048</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>524</v>
+        <v>32</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6606,13 +6600,13 @@
         <v>25126</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>504</v>
+        <v>148</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="H33" s="7">
         <v>9</v>
@@ -6621,13 +6615,13 @@
         <v>11452</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>529</v>
+        <v>18</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="M33" s="7">
         <v>26</v>
@@ -6636,13 +6630,13 @@
         <v>36578</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,13 +6651,13 @@
         <v>18779</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>85</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -6672,13 +6666,13 @@
         <v>3763</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>304</v>
+        <v>533</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="M34" s="7">
         <v>15</v>
@@ -6687,13 +6681,13 @@
         <v>22542</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6749,7 +6743,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -6761,13 +6755,13 @@
         <v>9540</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="H36" s="7">
         <v>5</v>
@@ -6776,13 +6770,13 @@
         <v>3337</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="M36" s="7">
         <v>14</v>
@@ -6791,13 +6785,13 @@
         <v>12876</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>114</v>
+        <v>432</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,13 +6806,13 @@
         <v>14912</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="H37" s="7">
         <v>7</v>
@@ -6827,13 +6821,13 @@
         <v>10087</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="M37" s="7">
         <v>18</v>
@@ -6842,13 +6836,13 @@
         <v>24999</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>554</v>
+        <v>287</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,13 +6857,13 @@
         <v>32165</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H38" s="7">
         <v>23</v>
@@ -6878,13 +6872,13 @@
         <v>16186</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>103</v>
+        <v>557</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="M38" s="7">
         <v>51</v>
@@ -6893,13 +6887,13 @@
         <v>48350</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +6908,13 @@
         <v>29871</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="H39" s="7">
         <v>7</v>
@@ -6929,13 +6923,13 @@
         <v>15352</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="M39" s="7">
         <v>32</v>
@@ -6944,13 +6938,13 @@
         <v>45223</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +6959,13 @@
         <v>61392</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="H40" s="7">
         <v>24</v>
@@ -6980,13 +6974,13 @@
         <v>20702</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="M40" s="7">
         <v>72</v>
@@ -6995,13 +6989,13 @@
         <v>82094</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,13 +7010,13 @@
         <v>29413</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>111</v>
+        <v>580</v>
       </c>
       <c r="H41" s="7">
         <v>21</v>
@@ -7031,13 +7025,13 @@
         <v>16954</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>581</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>583</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>584</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>585</v>
       </c>
       <c r="M41" s="7">
         <v>50</v>
@@ -7046,13 +7040,13 @@
         <v>46367</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P41" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="Q41" s="7" t="s">
         <v>586</v>
-      </c>
-      <c r="P41" s="7" t="s">
-        <v>587</v>
-      </c>
-      <c r="Q41" s="7" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +7061,13 @@
         <v>15875</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>587</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>589</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>590</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
@@ -7082,13 +7076,13 @@
         <v>2984</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>593</v>
+        <v>180</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="M42" s="7">
         <v>16</v>
@@ -7097,13 +7091,13 @@
         <v>18859</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7165,13 @@
         <v>23093</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>288</v>
+        <v>597</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -7186,13 +7180,13 @@
         <v>10875</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="M44" s="7">
         <v>35</v>
@@ -7201,13 +7195,13 @@
         <v>33968</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>601</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>603</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7216,13 @@
         <v>35957</v>
       </c>
       <c r="E45" s="7" t="s">
+        <v>603</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>605</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>606</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>607</v>
       </c>
       <c r="H45" s="7">
         <v>11</v>
@@ -7237,13 +7231,13 @@
         <v>11675</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="M45" s="7">
         <v>42</v>
@@ -7252,13 +7246,13 @@
         <v>47632</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,13 +7267,13 @@
         <v>147230</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>107</v>
+        <v>610</v>
       </c>
       <c r="F46" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>613</v>
       </c>
       <c r="H46" s="7">
         <v>72</v>
@@ -7288,13 +7282,13 @@
         <v>60179</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>614</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>615</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>616</v>
       </c>
       <c r="M46" s="7">
         <v>188</v>
@@ -7303,13 +7297,13 @@
         <v>207409</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>617</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>618</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,10 +7321,10 @@
         <v>105</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>621</v>
+        <v>136</v>
       </c>
       <c r="H47" s="7">
         <v>28</v>
@@ -7339,13 +7333,13 @@
         <v>36098</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M47" s="7">
         <v>91</v>
@@ -7354,13 +7348,13 @@
         <v>120689</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>624</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,13 +7369,13 @@
         <v>190946</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>628</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>629</v>
       </c>
       <c r="H48" s="7">
         <v>75</v>
@@ -7390,13 +7384,13 @@
         <v>65504</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>629</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>630</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>631</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>632</v>
       </c>
       <c r="M48" s="7">
         <v>221</v>
@@ -7405,13 +7399,13 @@
         <v>256450</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>633</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>634</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,13 +7420,13 @@
         <v>102376</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>635</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>637</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>638</v>
       </c>
       <c r="H49" s="7">
         <v>55</v>
@@ -7441,13 +7435,13 @@
         <v>49290</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>639</v>
+        <v>310</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M49" s="7">
         <v>141</v>
@@ -7456,13 +7450,13 @@
         <v>151666</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,13 +7471,13 @@
         <v>60835</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="H50" s="7">
         <v>18</v>
@@ -7492,13 +7486,13 @@
         <v>16132</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>265</v>
+        <v>645</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M50" s="7">
         <v>64</v>
@@ -7507,13 +7501,13 @@
         <v>76967</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="P50" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q50" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="P50" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -7569,7 +7563,7 @@
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
